--- a/python/testbook.xlsx
+++ b/python/testbook.xlsx
@@ -27,13 +27,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>172.17.50.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>172.17.50.254</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2911_RT-A</t>
+  </si>
+  <si>
+    <t>FHIEFIW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIOEJFIOE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JKDOJJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FJF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -365,14 +384,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
